--- a/docentes/Jiménez Nieto Enrique - Estadisticos 20242.xlsx
+++ b/docentes/Jiménez Nieto Enrique - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="47">
   <si>
     <t>Mat</t>
   </si>
@@ -88,151 +88,76 @@
     <t>Reprobadas</t>
   </si>
   <si>
-    <t>MACHORRO</t>
-  </si>
-  <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>PERALTA</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
+    <t>ARELLANO</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>PARADA</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
   </si>
   <si>
     <t>CASTILLO</t>
   </si>
   <si>
-    <t>CLEMENTE</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>CUICAHUA</t>
-  </si>
-  <si>
     <t>FLORES</t>
   </si>
   <si>
-    <t>RUIZ</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>XICALHUA</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>SILVESTRE</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>TRONCO</t>
-  </si>
-  <si>
-    <t>VALENTE</t>
-  </si>
-  <si>
-    <t>DAMIAN</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>OROZCO</t>
-  </si>
-  <si>
-    <t>GIL</t>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>UTRERA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
   </si>
   <si>
     <t>TINOCO</t>
   </si>
   <si>
-    <t>SANTOS</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>JORGE</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>PALACIOS</t>
-  </si>
-  <si>
-    <t>OLIVARES</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>ALDAIR</t>
-  </si>
-  <si>
-    <t>RAFAEL FELIPE</t>
-  </si>
-  <si>
-    <t>SANTIAGO ZURIEL</t>
-  </si>
-  <si>
-    <t>DIEGO</t>
-  </si>
-  <si>
-    <t>JESUS JAREF</t>
-  </si>
-  <si>
-    <t>BRUNO</t>
-  </si>
-  <si>
-    <t>ANGEL ALEXANDER</t>
-  </si>
-  <si>
-    <t>PABLO AZAEL</t>
+    <t>ISLAS</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>JOY JARA</t>
+  </si>
+  <si>
+    <t>MARCO DIDIEL</t>
+  </si>
+  <si>
+    <t>OMAR DAVID</t>
+  </si>
+  <si>
+    <t>CARLOS DAVID</t>
+  </si>
+  <si>
+    <t>ANGEL ALBERTO</t>
   </si>
   <si>
     <t>ANGEL MOISES</t>
   </si>
   <si>
-    <t>ALEXIS URIEL</t>
-  </si>
-  <si>
-    <t>EMILIANO GERARDO</t>
-  </si>
-  <si>
-    <t>CRISTIAN LEOBARDO</t>
-  </si>
-  <si>
-    <t>KARLA YARITZY</t>
-  </si>
-  <si>
-    <t>EVIAN ISSAIAS</t>
-  </si>
-  <si>
-    <t>EVELYN ROSALIA</t>
-  </si>
-  <si>
-    <t>MICHELLE</t>
+    <t>VICTOR ALEJANDRO</t>
   </si>
 </sst>
 </file>
@@ -834,16 +759,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>83.33</v>
+      </c>
+      <c r="H2">
+        <v>6.9</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -857,16 +785,19 @@
         <v>39</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>89.73999999999999</v>
+      </c>
+      <c r="H3">
+        <v>7.3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -880,16 +811,19 @@
         <v>24</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>79.17</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -903,16 +837,19 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>79.17</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -926,16 +863,19 @@
         <v>24</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>8.1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -949,16 +889,19 @@
         <v>24</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1017,16 +960,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>63.89</v>
+        <v>83.33</v>
       </c>
       <c r="H2">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1043,16 +986,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G3">
-        <v>76.92</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1069,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4">
-        <v>83.33</v>
+        <v>79.17</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1095,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>83.33</v>
+        <v>79.17</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1121,13 +1064,13 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>91.67</v>
+        <v>100</v>
       </c>
       <c r="H6">
         <v>8.1</v>
@@ -1147,16 +1090,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="G7">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1201,16 +1144,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920326</v>
+        <v>24330051920233</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1224,16 +1167,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920002</v>
+        <v>24330051920353</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1247,22 +1190,22 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920006</v>
+        <v>24330051920404</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -1270,45 +1213,45 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920006</v>
+        <v>23330051920005</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920111</v>
+        <v>23330051920005</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
         <v>42</v>
       </c>
-      <c r="D6" t="s">
-        <v>58</v>
-      </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -1316,22 +1259,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920314</v>
+        <v>23330051920018</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
       </c>
       <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
-        <v>59</v>
-      </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G7">
         <v>3</v>
@@ -1339,22 +1282,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>23330051920181</v>
+        <v>23330051920018</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1362,22 +1305,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920008</v>
+        <v>24330051920340</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9">
         <v>2</v>
@@ -1385,16 +1328,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920328</v>
+        <v>24330051920324</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1403,213 +1346,29 @@
         <v>12</v>
       </c>
       <c r="G10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920012</v>
+        <v>24330051920334</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>24330051920324</v>
-      </c>
-      <c r="B12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>24330051920137</v>
-      </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>22330051920205</v>
-      </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>22330051920229</v>
-      </c>
-      <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>22330051920374</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17">
-        <v>22330051920215</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18">
-        <v>22330051920222</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19">
-        <v>22330051920224</v>
-      </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D19" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19">
         <v>1</v>
       </c>
     </row>

--- a/docentes/Jiménez Nieto Enrique - Estadisticos 20242.xlsx
+++ b/docentes/Jiménez Nieto Enrique - Estadisticos 20242.xlsx
@@ -97,15 +97,15 @@
     <t>PARADA</t>
   </si>
   <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
     <t>CASTRO</t>
   </si>
   <si>
-    <t>RAMOS</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
     <t>FLORES</t>
   </si>
   <si>
@@ -121,15 +121,15 @@
     <t>SANTOS</t>
   </si>
   <si>
+    <t>UTRERA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
     <t>ARIAS</t>
   </si>
   <si>
-    <t>UTRERA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
     <t>TINOCO</t>
   </si>
   <si>
@@ -145,13 +145,13 @@
     <t>MARCO DIDIEL</t>
   </si>
   <si>
+    <t>CARLOS DAVID</t>
+  </si>
+  <si>
+    <t>ANGEL ALBERTO</t>
+  </si>
+  <si>
     <t>OMAR DAVID</t>
-  </si>
-  <si>
-    <t>CARLOS DAVID</t>
-  </si>
-  <si>
-    <t>ANGEL ALBERTO</t>
   </si>
   <si>
     <t>ANGEL MOISES</t>
@@ -1213,7 +1213,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920005</v>
+        <v>23330051920018</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -1236,7 +1236,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920005</v>
+        <v>23330051920018</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920018</v>
+        <v>24330051920340</v>
       </c>
       <c r="B7" t="s">
         <v>27</v>
@@ -1271,41 +1271,41 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>23330051920018</v>
+        <v>23330051920005</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920340</v>
+        <v>23330051920005</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -1317,10 +1317,10 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9">
         <v>2</v>
